--- a/REGULAR/RE-ENCODE/CASTRO, VIVIAN1.xlsx
+++ b/REGULAR/RE-ENCODE/CASTRO, VIVIAN1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="227">
   <si>
     <t>PERIOD</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>11/29,30/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1747,9 +1750,9 @@
   <dimension ref="A2:K425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="3210" topLeftCell="A364" activePane="bottomLeft"/>
+      <pane ySplit="3210" topLeftCell="A367" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K381" sqref="K381"/>
+      <selection pane="bottomLeft" activeCell="G386" sqref="G386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +1913,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>229.858</v>
+        <v>232.358</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1920,7 +1923,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>380.5</v>
+        <v>382</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9789,15 +9792,17 @@
       <c r="B381" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C381" s="13"/>
+      <c r="C381" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D381" s="39">
         <v>2</v>
       </c>
       <c r="E381" s="9"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G381" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H381" s="39"/>
       <c r="I381" s="9"/>
@@ -9811,13 +9816,15 @@
         <v>45291</v>
       </c>
       <c r="B382" s="20"/>
-      <c r="C382" s="13"/>
+      <c r="C382" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D382" s="39"/>
       <c r="E382" s="9"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G382" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H382" s="39"/>
       <c r="I382" s="9"/>
@@ -9825,7 +9832,9 @@
       <c r="K382" s="20"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40"/>
+      <c r="A383" s="48" t="s">
+        <v>226</v>
+      </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
       <c r="D383" s="39"/>
@@ -9841,8 +9850,12 @@
       <c r="K383" s="20"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="40"/>
-      <c r="B384" s="20"/>
+      <c r="A384" s="40">
+        <v>45322</v>
+      </c>
+      <c r="B384" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
       <c r="E384" s="9"/>
@@ -9851,13 +9864,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H384" s="39"/>
+      <c r="H384" s="39">
+        <v>1</v>
+      </c>
       <c r="I384" s="9"/>
       <c r="J384" s="11"/>
-      <c r="K384" s="20"/>
+      <c r="K384" s="49">
+        <v>45294</v>
+      </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="40"/>
+      <c r="A385" s="40">
+        <v>45351</v>
+      </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
       <c r="D385" s="39"/>
@@ -9873,7 +9892,9 @@
       <c r="K385" s="20"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="40"/>
+      <c r="A386" s="40">
+        <v>45382</v>
+      </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
       <c r="D386" s="39"/>
@@ -9889,7 +9910,9 @@
       <c r="K386" s="20"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="40"/>
+      <c r="A387" s="40">
+        <v>45412</v>
+      </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
       <c r="D387" s="39"/>
@@ -9905,7 +9928,9 @@
       <c r="K387" s="20"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="40"/>
+      <c r="A388" s="40">
+        <v>45443</v>
+      </c>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
       <c r="D388" s="39"/>
@@ -9921,7 +9946,9 @@
       <c r="K388" s="20"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="40"/>
+      <c r="A389" s="40">
+        <v>45473</v>
+      </c>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
       <c r="D389" s="39"/>
@@ -9937,7 +9964,9 @@
       <c r="K389" s="20"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="40"/>
+      <c r="A390" s="40">
+        <v>45504</v>
+      </c>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
       <c r="D390" s="39"/>
@@ -9953,7 +9982,9 @@
       <c r="K390" s="20"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="40"/>
+      <c r="A391" s="40">
+        <v>45535</v>
+      </c>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
       <c r="D391" s="39"/>
@@ -9969,7 +10000,9 @@
       <c r="K391" s="20"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="40"/>
+      <c r="A392" s="40">
+        <v>45565</v>
+      </c>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
       <c r="D392" s="39"/>
@@ -9985,7 +10018,9 @@
       <c r="K392" s="20"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="40"/>
+      <c r="A393" s="40">
+        <v>45596</v>
+      </c>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
@@ -10001,7 +10036,9 @@
       <c r="K393" s="20"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="40"/>
+      <c r="A394" s="40">
+        <v>45626</v>
+      </c>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
       <c r="D394" s="39"/>
@@ -10017,7 +10054,9 @@
       <c r="K394" s="20"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="40"/>
+      <c r="A395" s="40">
+        <v>45657</v>
+      </c>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
       <c r="D395" s="39"/>
@@ -10033,7 +10072,9 @@
       <c r="K395" s="20"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="40"/>
+      <c r="A396" s="40">
+        <v>45688</v>
+      </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
       <c r="D396" s="39"/>
